--- a/biology/Histoire de la zoologie et de la botanique/W.Wright/W.Wright.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/W.Wright/W.Wright.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Wright est un médecin et un botaniste écossais, né en mars 1735 à Crieff dans le Perthshire en Écosse et mort le 19 septembre 1819 à Édimbourg.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à l’université d’Édimbourg et obtient son titre de docteur en médecine à St Andrews. Il apprend la chirurgie à Falkirk en Écosse.
 Il embarque comme chirurgien de bord en 1760. Il devient l’assistant du Dr Gray en Jamaïque en 1764. Il reste dans l’île jusqu’en 1777. En 1778, il est fait membre de la Royal Society, il participe à de nombreuses sociétés savantes dont la Société linnéenne de Londres (il devient membre associé en 1807), l’École royale de médecine de Londres (qu’il dirige en 1801).
